--- a/informatics/labs/lab5/lab5.xlsx
+++ b/informatics/labs/lab5/lab5.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCE1F1E-1FC7-485B-95ED-2A0EBE586C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77657C1-558F-BB49-94BD-FAC624132284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -317,9 +317,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -338,27 +338,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -366,20 +357,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="3" tint="0.39994506668294322"/>
@@ -406,9 +384,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -446,9 +424,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,26 +459,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,26 +494,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -729,28 +673,28 @@
   <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="1" max="2" width="7.1640625" customWidth="1"/>
+    <col min="3" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
     <col min="6" max="7" width="4" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
     <col min="9" max="27" width="4" customWidth="1"/>
-    <col min="28" max="28" width="4.5703125" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" customWidth="1"/>
+    <col min="28" max="28" width="4.5" customWidth="1"/>
+    <col min="29" max="29" width="10.5" customWidth="1"/>
     <col min="30" max="30" width="9" customWidth="1"/>
-    <col min="31" max="31" width="8.5703125" customWidth="1"/>
-    <col min="32" max="32" width="10.5703125" customWidth="1"/>
-    <col min="33" max="33" width="4.5703125" customWidth="1"/>
-    <col min="34" max="34" width="84.42578125" customWidth="1"/>
-    <col min="35" max="64" width="4.5703125" customWidth="1"/>
+    <col min="31" max="31" width="8.5" customWidth="1"/>
+    <col min="32" max="32" width="10.5" customWidth="1"/>
+    <col min="33" max="33" width="4.5" customWidth="1"/>
+    <col min="34" max="34" width="84.5" customWidth="1"/>
+    <col min="35" max="64" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
@@ -767,7 +711,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -775,7 +719,7 @@
         <v>18130</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C3" s="2"/>
       <c r="I3" s="7">
         <v>15</v>
@@ -835,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -932,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1029,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1126,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1223,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1320,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1416,9 +1360,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="11"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD9" s="9"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1515,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1612,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1709,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1806,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1903,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2000,176 +1944,176 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="C17" s="13" t="s">
+    <row r="17" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="I17" s="9">
+      <c r="D17" s="11"/>
+      <c r="I17" s="8">
         <f t="shared" ref="I17:Y17" si="3">IF(J18=".",J17,ROUNDDOWN((J19+J18+J17)/2,0))</f>
         <v>0</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U17" s="9">
+      <c r="U17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V17" s="9">
+      <c r="V17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W17" s="9">
+      <c r="W17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X17" s="9">
+      <c r="X17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="9">
+      <c r="Y17" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z17" s="9">
+      <c r="Z17" s="8">
         <f>IF(AA18=".",AA17,ROUNDDOWN((AA19+AA18+AA17)/2,0))</f>
         <v>0</v>
       </c>
-      <c r="AA17" s="9"/>
-    </row>
-    <row r="18" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="C18" s="8" t="s">
+      <c r="AA17" s="8"/>
+    </row>
+    <row r="18" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="10" t="str">
+      <c r="H18" s="6" t="str">
         <f>C18</f>
         <v>B1</v>
       </c>
-      <c r="I18" s="10" t="str">
+      <c r="I18" s="6" t="str">
         <f t="shared" ref="I18:R19" si="4">VLOOKUP($H18,$F$4:$AA$15,3+I$95,0)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="10" t="str">
+      <c r="J18" s="6" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K18" s="10" t="str">
+      <c r="K18" s="6" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L18" s="10" t="str">
+      <c r="L18" s="6" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M18" s="10" t="str">
+      <c r="M18" s="6" t="str">
         <f t="shared" si="4"/>
         <v>.</v>
       </c>
-      <c r="N18" s="10" t="str">
+      <c r="N18" s="6" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O18" s="10" t="str">
+      <c r="O18" s="6" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P18" s="10" t="str">
+      <c r="P18" s="6" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q18" s="10" t="str">
+      <c r="Q18" s="6" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R18" s="10" t="str">
+      <c r="R18" s="6" t="str">
         <f t="shared" si="4"/>
         <v>.</v>
       </c>
-      <c r="S18" s="10" t="str">
+      <c r="S18" s="6" t="str">
         <f t="shared" ref="S18:AA19" si="5">VLOOKUP($H18,$F$4:$AA$15,3+S$95,0)</f>
         <v>0</v>
       </c>
-      <c r="T18" s="10" t="str">
+      <c r="T18" s="6" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="U18" s="10" t="str">
+      <c r="U18" s="6" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V18" s="10" t="str">
+      <c r="V18" s="6" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W18" s="10" t="str">
+      <c r="W18" s="6" t="str">
         <f t="shared" si="5"/>
         <v>.</v>
       </c>
-      <c r="X18" s="10" t="str">
+      <c r="X18" s="6" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="10" t="str">
+      <c r="Y18" s="6" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="10" t="str">
+      <c r="Z18" s="6" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AA18" s="10" t="str">
+      <c r="AA18" s="6" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="16" t="s">
+      <c r="AD18" s="12" t="s">
         <v>41</v>
       </c>
       <c r="AE18" t="str">
@@ -2177,103 +2121,103 @@
         <v>X1</v>
       </c>
       <c r="AF18">
-        <f>VLOOKUP(AE18,$A$4:$D$15,4,0)</f>
+        <f>D4</f>
         <v>4930</v>
       </c>
     </row>
-    <row r="19" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="G19" s="15"/>
-      <c r="H19" s="9" t="str">
+    <row r="19" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="G19" s="13"/>
+      <c r="H19" s="8" t="str">
         <f>D18</f>
         <v>B2</v>
       </c>
-      <c r="I19" s="9" t="str">
+      <c r="I19" s="8" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J19" s="9" t="str">
+      <c r="J19" s="8" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K19" s="9" t="str">
+      <c r="K19" s="8" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L19" s="9" t="str">
+      <c r="L19" s="8" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M19" s="9" t="str">
+      <c r="M19" s="8" t="str">
         <f t="shared" si="4"/>
         <v>.</v>
       </c>
-      <c r="N19" s="9" t="str">
+      <c r="N19" s="8" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O19" s="9" t="str">
+      <c r="O19" s="8" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="P19" s="9" t="str">
+      <c r="P19" s="8" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="9" t="str">
+      <c r="Q19" s="8" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R19" s="9" t="str">
+      <c r="R19" s="8" t="str">
         <f t="shared" si="4"/>
         <v>.</v>
       </c>
-      <c r="S19" s="9" t="str">
+      <c r="S19" s="8" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T19" s="9" t="str">
+      <c r="T19" s="8" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="U19" s="9" t="str">
+      <c r="U19" s="8" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V19" s="9" t="str">
+      <c r="V19" s="8" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="W19" s="9" t="str">
+      <c r="W19" s="8" t="str">
         <f t="shared" si="5"/>
         <v>.</v>
       </c>
-      <c r="X19" s="9" t="str">
+      <c r="X19" s="8" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="9" t="str">
+      <c r="Y19" s="8" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="9" t="str">
+      <c r="Z19" s="8" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AA19" s="9" t="str">
+      <c r="AA19" s="8" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="12" t="str">
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="10" t="str">
         <f>"X"&amp;MID(D18,2,2)</f>
         <v>X2</v>
       </c>
-      <c r="AF19" s="12">
-        <f>VLOOKUP(AE19,$A$4:$D$15,4,0)</f>
+      <c r="AF19" s="10">
+        <f>D5</f>
         <v>18130</v>
       </c>
     </row>
-    <row r="20" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I20" s="6">
         <f t="shared" ref="I20:Z20" si="6">IF(I19=".",I19,MOD(I19+I18+I17,2))</f>
         <v>0</v>
@@ -2350,14 +2294,14 @@
         <f>IF(AA19=".",AA19,MOD(AA19+AA18+AA17,2))</f>
         <v>0</v>
       </c>
-      <c r="AB20" s="11" t="s">
+      <c r="AB20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AC20" s="11">
+      <c r="AC20" s="9">
         <f>IF(I20=0,_xlfn.DECIMAL(J20&amp;K20&amp;L20&amp;N20&amp;O20&amp;P20&amp;Q20&amp;S20&amp;T20&amp;U20&amp;V20&amp;X20&amp;Y20&amp;Z20&amp;AA20, 2),-_xlfn.DECIMAL(J21&amp;K21&amp;L21&amp;N21&amp;O21&amp;P21&amp;Q21&amp;S21&amp;T21&amp;U21&amp;V21&amp;X21&amp;Y21&amp;Z21&amp;AA21, 2))</f>
         <v>23060</v>
       </c>
-      <c r="AD20" s="11" t="s">
+      <c r="AD20" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AF20">
@@ -2369,7 +2313,7 @@
         <v>Результат верный.</v>
       </c>
     </row>
-    <row r="21" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I21" s="6" t="str">
         <f>IF(I20=0,"",1)</f>
         <v/>
@@ -2446,9 +2390,9 @@
         <f t="shared" ref="AA21" si="23">IF(Z21&lt;&gt;"",IF(AA20&lt;&gt;".",IF($I$29=1,MID(_xlfn.BASE(ABS(_xlfn.DECIMAL($J20&amp;$K20&amp;$L20&amp;$N20&amp;$O20&amp;$P20&amp;$Q20&amp;$S20&amp;$T20&amp;$U20&amp;$V20&amp;$X20&amp;$Y20&amp;$Z20&amp;$AA20,2)-2^16),2,16),ABS(AA$3-16),1),""),"."),"")</f>
         <v/>
       </c>
-      <c r="AC21" s="11"/>
-    </row>
-    <row r="22" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="AC21" s="9"/>
+    </row>
+    <row r="22" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I22" t="s">
         <v>45</v>
       </c>
@@ -2491,186 +2435,186 @@
         <f>IF(_xlfn.XOR(J22,I17),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AC22" s="11"/>
-    </row>
-    <row r="23" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="AC23" s="11"/>
-    </row>
-    <row r="24" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="AC24" s="11"/>
-    </row>
-    <row r="25" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="C25" s="13" t="s">
+      <c r="AC22" s="9"/>
+    </row>
+    <row r="23" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="AC23" s="9"/>
+    </row>
+    <row r="24" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="AC24" s="9"/>
+    </row>
+    <row r="25" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C25" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="I25" s="9">
+      <c r="D25" s="11"/>
+      <c r="I25" s="8">
         <f t="shared" ref="I25:Y25" si="24">IF(J26=".",J25,ROUNDDOWN((J27+J26+J25)/2,0))</f>
         <v>1</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="8">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="8">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="8">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="8">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O25" s="8">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25" s="8">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="Q25" s="8">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="R25" s="9">
+      <c r="R25" s="8">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="S25" s="9">
+      <c r="S25" s="8">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="T25" s="9">
+      <c r="T25" s="8">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="U25" s="9">
+      <c r="U25" s="8">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="V25" s="9">
+      <c r="V25" s="8">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W25" s="9">
+      <c r="W25" s="8">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="X25" s="9">
+      <c r="X25" s="8">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="9">
+      <c r="Y25" s="8">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="9">
+      <c r="Z25" s="8">
         <f>IF(AA26=".",AA25,ROUNDDOWN((AA27+AA26+AA25)/2,0))</f>
         <v>0</v>
       </c>
-      <c r="AA25" s="9"/>
-      <c r="AC25" s="11"/>
-    </row>
-    <row r="26" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="C26" s="8" t="s">
+      <c r="AA25" s="8"/>
+      <c r="AC25" s="9"/>
+    </row>
+    <row r="26" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="10" t="str">
+      <c r="H26" s="6" t="str">
         <f>C26</f>
         <v>B2</v>
       </c>
-      <c r="I26" s="10" t="str">
+      <c r="I26" s="6" t="str">
         <f t="shared" ref="I26:R27" si="25">VLOOKUP($H26,$F$4:$AA$15,3+I$95,0)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="10" t="str">
+      <c r="J26" s="6" t="str">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="K26" s="10" t="str">
+      <c r="K26" s="6" t="str">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L26" s="10" t="str">
+      <c r="L26" s="6" t="str">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M26" s="10" t="str">
+      <c r="M26" s="6" t="str">
         <f t="shared" si="25"/>
         <v>.</v>
       </c>
-      <c r="N26" s="10" t="str">
+      <c r="N26" s="6" t="str">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="O26" s="10" t="str">
+      <c r="O26" s="6" t="str">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="P26" s="10" t="str">
+      <c r="P26" s="6" t="str">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="Q26" s="10" t="str">
+      <c r="Q26" s="6" t="str">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="R26" s="10" t="str">
+      <c r="R26" s="6" t="str">
         <f t="shared" si="25"/>
         <v>.</v>
       </c>
-      <c r="S26" s="10" t="str">
+      <c r="S26" s="6" t="str">
         <f t="shared" ref="S26:AA27" si="26">VLOOKUP($H26,$F$4:$AA$15,3+S$95,0)</f>
         <v>1</v>
       </c>
-      <c r="T26" s="10" t="str">
+      <c r="T26" s="6" t="str">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="U26" s="10" t="str">
+      <c r="U26" s="6" t="str">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="V26" s="10" t="str">
+      <c r="V26" s="6" t="str">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="W26" s="10" t="str">
+      <c r="W26" s="6" t="str">
         <f t="shared" si="26"/>
         <v>.</v>
       </c>
-      <c r="X26" s="10" t="str">
+      <c r="X26" s="6" t="str">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="10" t="str">
+      <c r="Y26" s="6" t="str">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="10" t="str">
+      <c r="Z26" s="6" t="str">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="AA26" s="10" t="str">
+      <c r="AA26" s="6" t="str">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="16" t="s">
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="12" t="s">
         <v>41</v>
       </c>
       <c r="AE26" t="str">
@@ -2678,104 +2622,104 @@
         <v>X2</v>
       </c>
       <c r="AF26">
-        <f>VLOOKUP(AE26,$A$4:$D$15,4,0)</f>
+        <f>D5</f>
         <v>18130</v>
       </c>
     </row>
-    <row r="27" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="G27" s="15"/>
-      <c r="H27" s="9" t="str">
+    <row r="27" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="G27" s="13"/>
+      <c r="H27" s="8" t="str">
         <f>D26</f>
         <v>B3</v>
       </c>
-      <c r="I27" s="9" t="str">
+      <c r="I27" s="8" t="str">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J27" s="9" t="str">
+      <c r="J27" s="8" t="str">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="K27" s="9" t="str">
+      <c r="K27" s="8" t="str">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L27" s="9" t="str">
+      <c r="L27" s="8" t="str">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="M27" s="9" t="str">
+      <c r="M27" s="8" t="str">
         <f t="shared" si="25"/>
         <v>.</v>
       </c>
-      <c r="N27" s="9" t="str">
+      <c r="N27" s="8" t="str">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O27" s="9" t="str">
+      <c r="O27" s="8" t="str">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="P27" s="9" t="str">
+      <c r="P27" s="8" t="str">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="Q27" s="9" t="str">
+      <c r="Q27" s="8" t="str">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="R27" s="9" t="str">
+      <c r="R27" s="8" t="str">
         <f t="shared" si="25"/>
         <v>.</v>
       </c>
-      <c r="S27" s="9" t="str">
+      <c r="S27" s="8" t="str">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T27" s="9" t="str">
+      <c r="T27" s="8" t="str">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="U27" s="9" t="str">
+      <c r="U27" s="8" t="str">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="V27" s="9" t="str">
+      <c r="V27" s="8" t="str">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="W27" s="9" t="str">
+      <c r="W27" s="8" t="str">
         <f t="shared" si="26"/>
         <v>.</v>
       </c>
-      <c r="X27" s="9" t="str">
+      <c r="X27" s="8" t="str">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="9" t="str">
+      <c r="Y27" s="8" t="str">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="Z27" s="9" t="str">
+      <c r="Z27" s="8" t="str">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="9" t="str">
+      <c r="AA27" s="8" t="str">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="16"/>
-      <c r="AE27" s="12" t="str">
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="10" t="str">
         <f>"X"&amp;MID(D26,2,2)</f>
         <v>X3</v>
       </c>
-      <c r="AF27" s="12">
-        <f>VLOOKUP(AE27,$A$4:$D$15,4,0)</f>
+      <c r="AF27" s="10">
+        <f>D6</f>
         <v>23060</v>
       </c>
     </row>
-    <row r="28" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I28" s="6">
         <f t="shared" ref="I28" si="27">IF(I27=".",I27,MOD(I27+I26+I25,2))</f>
         <v>1</v>
@@ -2852,14 +2796,14 @@
         <f>IF(AA27=".",AA27,MOD(AA27+AA26+AA25,2))</f>
         <v>0</v>
       </c>
-      <c r="AB28" s="11" t="s">
+      <c r="AB28" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AC28" s="11">
+      <c r="AC28" s="9">
         <f>IF(I28=0,_xlfn.DECIMAL(J28&amp;K28&amp;L28&amp;N28&amp;O28&amp;P28&amp;Q28&amp;S28&amp;T28&amp;U28&amp;V28&amp;X28&amp;Y28&amp;Z28&amp;AA28, 2),-_xlfn.DECIMAL(J29&amp;K29&amp;L29&amp;N29&amp;O29&amp;P29&amp;Q29&amp;S29&amp;T29&amp;U29&amp;V29&amp;X29&amp;Y29&amp;Z29&amp;AA29, 2))</f>
         <v>-24346</v>
       </c>
-      <c r="AD28" s="11" t="s">
+      <c r="AD28" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AF28">
@@ -2871,7 +2815,7 @@
         <v>При сложении положительных чисел получен отрицательный результат — произошло переполнение.</v>
       </c>
     </row>
-    <row r="29" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I29" s="6">
         <f>IF(I28=0,"",1)</f>
         <v>1</v>
@@ -2949,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I30" t="s">
         <v>45</v>
       </c>
@@ -2993,178 +2937,178 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="C33" s="13" t="s">
+    <row r="33" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C33" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="I33" s="9">
+      <c r="D33" s="11"/>
+      <c r="I33" s="8">
         <f t="shared" ref="I33:Y33" si="62">IF(J34=".",J33,ROUNDDOWN((J35+J34+J33)/2,0))</f>
         <v>1</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="8">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="8">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="8">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="8">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33" s="8">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="O33" s="9">
+      <c r="O33" s="8">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="P33" s="9">
+      <c r="P33" s="8">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="9">
+      <c r="Q33" s="8">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="R33" s="9">
+      <c r="R33" s="8">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="S33" s="9">
+      <c r="S33" s="8">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="T33" s="9">
+      <c r="T33" s="8">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="U33" s="9">
+      <c r="U33" s="8">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="V33" s="9">
+      <c r="V33" s="8">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="W33" s="9">
+      <c r="W33" s="8">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="X33" s="9">
+      <c r="X33" s="8">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="Y33" s="9">
+      <c r="Y33" s="8">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="Z33" s="9">
+      <c r="Z33" s="8">
         <f>IF(AA34=".",AA33,ROUNDDOWN((AA35+AA34+AA33)/2,0))</f>
         <v>0</v>
       </c>
-      <c r="AA33" s="9"/>
-      <c r="AC33" s="11"/>
-    </row>
-    <row r="34" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="C34" s="8" t="s">
+      <c r="AA33" s="8"/>
+      <c r="AC33" s="9"/>
+    </row>
+    <row r="34" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D34" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="10" t="str">
+      <c r="H34" s="6" t="str">
         <f>C34</f>
         <v>B2</v>
       </c>
-      <c r="I34" s="10" t="str">
+      <c r="I34" s="6" t="str">
         <f t="shared" ref="I34:R35" si="63">VLOOKUP($H34,$F$4:$AA$15,3+I$95,0)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="10" t="str">
+      <c r="J34" s="6" t="str">
         <f t="shared" si="63"/>
         <v>1</v>
       </c>
-      <c r="K34" s="10" t="str">
+      <c r="K34" s="6" t="str">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="L34" s="10" t="str">
+      <c r="L34" s="6" t="str">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="M34" s="10" t="str">
+      <c r="M34" s="6" t="str">
         <f t="shared" si="63"/>
         <v>.</v>
       </c>
-      <c r="N34" s="10" t="str">
+      <c r="N34" s="6" t="str">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="O34" s="10" t="str">
+      <c r="O34" s="6" t="str">
         <f t="shared" si="63"/>
         <v>1</v>
       </c>
-      <c r="P34" s="10" t="str">
+      <c r="P34" s="6" t="str">
         <f t="shared" si="63"/>
         <v>1</v>
       </c>
-      <c r="Q34" s="10" t="str">
+      <c r="Q34" s="6" t="str">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="R34" s="10" t="str">
+      <c r="R34" s="6" t="str">
         <f t="shared" si="63"/>
         <v>.</v>
       </c>
-      <c r="S34" s="10" t="str">
+      <c r="S34" s="6" t="str">
         <f t="shared" ref="S34:AA35" si="64">VLOOKUP($H34,$F$4:$AA$15,3+S$95,0)</f>
         <v>1</v>
       </c>
-      <c r="T34" s="10" t="str">
+      <c r="T34" s="6" t="str">
         <f t="shared" si="64"/>
         <v>1</v>
       </c>
-      <c r="U34" s="10" t="str">
+      <c r="U34" s="6" t="str">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V34" s="10" t="str">
+      <c r="V34" s="6" t="str">
         <f t="shared" si="64"/>
         <v>1</v>
       </c>
-      <c r="W34" s="10" t="str">
+      <c r="W34" s="6" t="str">
         <f t="shared" si="64"/>
         <v>.</v>
       </c>
-      <c r="X34" s="10" t="str">
+      <c r="X34" s="6" t="str">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="10" t="str">
+      <c r="Y34" s="6" t="str">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="Z34" s="10" t="str">
+      <c r="Z34" s="6" t="str">
         <f t="shared" si="64"/>
         <v>1</v>
       </c>
-      <c r="AA34" s="10" t="str">
+      <c r="AA34" s="6" t="str">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="16" t="s">
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="12" t="s">
         <v>41</v>
       </c>
       <c r="AE34" t="str">
@@ -3172,104 +3116,104 @@
         <v>X2</v>
       </c>
       <c r="AF34">
-        <f>VLOOKUP(AE34,$A$4:$D$15,4,0)</f>
+        <f>D5</f>
         <v>18130</v>
       </c>
     </row>
-    <row r="35" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="G35" s="15"/>
-      <c r="H35" s="9" t="str">
+    <row r="35" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="G35" s="13"/>
+      <c r="H35" s="8" t="str">
         <f>D34</f>
         <v>B7</v>
       </c>
-      <c r="I35" s="9" t="str">
+      <c r="I35" s="8" t="str">
         <f t="shared" si="63"/>
         <v>1</v>
       </c>
-      <c r="J35" s="9" t="str">
+      <c r="J35" s="8" t="str">
         <f t="shared" si="63"/>
         <v>1</v>
       </c>
-      <c r="K35" s="9" t="str">
+      <c r="K35" s="8" t="str">
         <f t="shared" si="63"/>
         <v>1</v>
       </c>
-      <c r="L35" s="9" t="str">
+      <c r="L35" s="8" t="str">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="M35" s="9" t="str">
+      <c r="M35" s="8" t="str">
         <f t="shared" si="63"/>
         <v>.</v>
       </c>
-      <c r="N35" s="9" t="str">
+      <c r="N35" s="8" t="str">
         <f t="shared" si="63"/>
         <v>1</v>
       </c>
-      <c r="O35" s="9" t="str">
+      <c r="O35" s="8" t="str">
         <f t="shared" si="63"/>
         <v>1</v>
       </c>
-      <c r="P35" s="9" t="str">
+      <c r="P35" s="8" t="str">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="9" t="str">
+      <c r="Q35" s="8" t="str">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="R35" s="9" t="str">
+      <c r="R35" s="8" t="str">
         <f t="shared" si="63"/>
         <v>.</v>
       </c>
-      <c r="S35" s="9" t="str">
+      <c r="S35" s="8" t="str">
         <f t="shared" si="64"/>
         <v>1</v>
       </c>
-      <c r="T35" s="9" t="str">
+      <c r="T35" s="8" t="str">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="U35" s="9" t="str">
+      <c r="U35" s="8" t="str">
         <f t="shared" si="64"/>
         <v>1</v>
       </c>
-      <c r="V35" s="9" t="str">
+      <c r="V35" s="8" t="str">
         <f t="shared" si="64"/>
         <v>1</v>
       </c>
-      <c r="W35" s="9" t="str">
+      <c r="W35" s="8" t="str">
         <f t="shared" si="64"/>
         <v>.</v>
       </c>
-      <c r="X35" s="9" t="str">
+      <c r="X35" s="8" t="str">
         <f t="shared" si="64"/>
         <v>1</v>
       </c>
-      <c r="Y35" s="9" t="str">
+      <c r="Y35" s="8" t="str">
         <f t="shared" si="64"/>
         <v>1</v>
       </c>
-      <c r="Z35" s="9" t="str">
+      <c r="Z35" s="8" t="str">
         <f t="shared" si="64"/>
         <v>1</v>
       </c>
-      <c r="AA35" s="9" t="str">
+      <c r="AA35" s="8" t="str">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="AC35" s="11"/>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="12" t="str">
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="10" t="str">
         <f>"X"&amp;MID(D34,2,2)</f>
         <v>X7</v>
       </c>
-      <c r="AF35" s="12">
-        <f>VLOOKUP(AE35,$A$4:$D$15,4,0)</f>
+      <c r="AF35" s="10">
+        <f>D10</f>
         <v>-4930</v>
       </c>
     </row>
-    <row r="36" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I36" s="6">
         <f t="shared" ref="I36" si="65">IF(I35=".",I35,MOD(I35+I34+I33,2))</f>
         <v>0</v>
@@ -3346,14 +3290,14 @@
         <f>IF(AA35=".",AA35,MOD(AA35+AA34+AA33,2))</f>
         <v>0</v>
       </c>
-      <c r="AB36" s="11" t="s">
+      <c r="AB36" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AC36" s="11">
+      <c r="AC36" s="9">
         <f>IF(I36=0,_xlfn.DECIMAL(J36&amp;K36&amp;L36&amp;N36&amp;O36&amp;P36&amp;Q36&amp;S36&amp;T36&amp;U36&amp;V36&amp;X36&amp;Y36&amp;Z36&amp;AA36, 2),-_xlfn.DECIMAL(J37&amp;K37&amp;L37&amp;N37&amp;O37&amp;P37&amp;Q37&amp;S37&amp;T37&amp;U37&amp;V37&amp;X37&amp;Y37&amp;Z37&amp;AA37, 2))</f>
         <v>13200</v>
       </c>
-      <c r="AD36" s="11" t="s">
+      <c r="AD36" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AF36">
@@ -3365,7 +3309,7 @@
         <v>Результат верный, перенос из старшего разряда не учитывается.</v>
       </c>
     </row>
-    <row r="37" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I37" s="6" t="str">
         <f>IF(I36=0,"",1)</f>
         <v/>
@@ -3443,7 +3387,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I38" t="s">
         <v>45</v>
       </c>
@@ -3487,178 +3431,178 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="C41" s="13" t="s">
+    <row r="41" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C41" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="I41" s="9">
+      <c r="D41" s="11"/>
+      <c r="I41" s="8">
         <f t="shared" ref="I41:Y41" si="100">IF(J42=".",J41,ROUNDDOWN((J43+J42+J41)/2,0))</f>
         <v>1</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="8">
         <f t="shared" si="100"/>
         <v>1</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="8">
         <f t="shared" si="100"/>
         <v>1</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="8">
         <f t="shared" si="100"/>
         <v>1</v>
       </c>
-      <c r="M41" s="9">
+      <c r="M41" s="8">
         <f t="shared" si="100"/>
         <v>1</v>
       </c>
-      <c r="N41" s="9">
+      <c r="N41" s="8">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="O41" s="9">
+      <c r="O41" s="8">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="P41" s="9">
+      <c r="P41" s="8">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="9">
+      <c r="Q41" s="8">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="R41" s="9">
+      <c r="R41" s="8">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="S41" s="9">
+      <c r="S41" s="8">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T41" s="9">
+      <c r="T41" s="8">
         <f t="shared" si="100"/>
         <v>1</v>
       </c>
-      <c r="U41" s="9">
+      <c r="U41" s="8">
         <f t="shared" si="100"/>
         <v>1</v>
       </c>
-      <c r="V41" s="9">
+      <c r="V41" s="8">
         <f t="shared" si="100"/>
         <v>1</v>
       </c>
-      <c r="W41" s="9">
+      <c r="W41" s="8">
         <f t="shared" si="100"/>
         <v>1</v>
       </c>
-      <c r="X41" s="9">
+      <c r="X41" s="8">
         <f t="shared" si="100"/>
         <v>1</v>
       </c>
-      <c r="Y41" s="9">
+      <c r="Y41" s="8">
         <f t="shared" si="100"/>
         <v>1</v>
       </c>
-      <c r="Z41" s="9">
+      <c r="Z41" s="8">
         <f>IF(AA42=".",AA41,ROUNDDOWN((AA43+AA42+AA41)/2,0))</f>
         <v>0</v>
       </c>
-      <c r="AA41" s="9"/>
-      <c r="AC41" s="11"/>
-    </row>
-    <row r="42" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="C42" s="8" t="s">
+      <c r="AA41" s="8"/>
+      <c r="AC41" s="9"/>
+    </row>
+    <row r="42" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C42" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D42" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="10" t="str">
+      <c r="H42" s="6" t="str">
         <f>C42</f>
         <v>B7</v>
       </c>
-      <c r="I42" s="10" t="str">
+      <c r="I42" s="6" t="str">
         <f t="shared" ref="I42:R43" si="101">VLOOKUP($H42,$F$4:$AA$15,3+I$95,0)</f>
         <v>1</v>
       </c>
-      <c r="J42" s="10" t="str">
+      <c r="J42" s="6" t="str">
         <f t="shared" si="101"/>
         <v>1</v>
       </c>
-      <c r="K42" s="10" t="str">
+      <c r="K42" s="6" t="str">
         <f t="shared" si="101"/>
         <v>1</v>
       </c>
-      <c r="L42" s="10" t="str">
+      <c r="L42" s="6" t="str">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="M42" s="10" t="str">
+      <c r="M42" s="6" t="str">
         <f t="shared" si="101"/>
         <v>.</v>
       </c>
-      <c r="N42" s="10" t="str">
+      <c r="N42" s="6" t="str">
         <f t="shared" si="101"/>
         <v>1</v>
       </c>
-      <c r="O42" s="10" t="str">
+      <c r="O42" s="6" t="str">
         <f t="shared" si="101"/>
         <v>1</v>
       </c>
-      <c r="P42" s="10" t="str">
+      <c r="P42" s="6" t="str">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="10" t="str">
+      <c r="Q42" s="6" t="str">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="R42" s="10" t="str">
+      <c r="R42" s="6" t="str">
         <f t="shared" si="101"/>
         <v>.</v>
       </c>
-      <c r="S42" s="10" t="str">
+      <c r="S42" s="6" t="str">
         <f t="shared" ref="S42:AA43" si="102">VLOOKUP($H42,$F$4:$AA$15,3+S$95,0)</f>
         <v>1</v>
       </c>
-      <c r="T42" s="10" t="str">
+      <c r="T42" s="6" t="str">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="U42" s="10" t="str">
+      <c r="U42" s="6" t="str">
         <f t="shared" si="102"/>
         <v>1</v>
       </c>
-      <c r="V42" s="10" t="str">
+      <c r="V42" s="6" t="str">
         <f t="shared" si="102"/>
         <v>1</v>
       </c>
-      <c r="W42" s="10" t="str">
+      <c r="W42" s="6" t="str">
         <f t="shared" si="102"/>
         <v>.</v>
       </c>
-      <c r="X42" s="10" t="str">
+      <c r="X42" s="6" t="str">
         <f t="shared" si="102"/>
         <v>1</v>
       </c>
-      <c r="Y42" s="10" t="str">
+      <c r="Y42" s="6" t="str">
         <f t="shared" si="102"/>
         <v>1</v>
       </c>
-      <c r="Z42" s="10" t="str">
+      <c r="Z42" s="6" t="str">
         <f t="shared" si="102"/>
         <v>1</v>
       </c>
-      <c r="AA42" s="10" t="str">
+      <c r="AA42" s="6" t="str">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="AC42" s="11"/>
-      <c r="AD42" s="16" t="s">
+      <c r="AC42" s="9"/>
+      <c r="AD42" s="12" t="s">
         <v>41</v>
       </c>
       <c r="AE42" t="str">
@@ -3666,104 +3610,104 @@
         <v>X7</v>
       </c>
       <c r="AF42">
-        <f>VLOOKUP(AE42,$A$4:$D$15,4,0)</f>
+        <f>D10</f>
         <v>-4930</v>
       </c>
     </row>
-    <row r="43" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="G43" s="15"/>
-      <c r="H43" s="9" t="str">
+    <row r="43" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="G43" s="13"/>
+      <c r="H43" s="8" t="str">
         <f>D42</f>
         <v>B8</v>
       </c>
-      <c r="I43" s="9" t="str">
+      <c r="I43" s="8" t="str">
         <f t="shared" si="101"/>
         <v>1</v>
       </c>
-      <c r="J43" s="9" t="str">
+      <c r="J43" s="8" t="str">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="K43" s="9" t="str">
+      <c r="K43" s="8" t="str">
         <f t="shared" si="101"/>
         <v>1</v>
       </c>
-      <c r="L43" s="9" t="str">
+      <c r="L43" s="8" t="str">
         <f t="shared" si="101"/>
         <v>1</v>
       </c>
-      <c r="M43" s="9" t="str">
+      <c r="M43" s="8" t="str">
         <f t="shared" si="101"/>
         <v>.</v>
       </c>
-      <c r="N43" s="9" t="str">
+      <c r="N43" s="8" t="str">
         <f t="shared" si="101"/>
         <v>1</v>
       </c>
-      <c r="O43" s="9" t="str">
+      <c r="O43" s="8" t="str">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="P43" s="9" t="str">
+      <c r="P43" s="8" t="str">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="9" t="str">
+      <c r="Q43" s="8" t="str">
         <f t="shared" si="101"/>
         <v>1</v>
       </c>
-      <c r="R43" s="9" t="str">
+      <c r="R43" s="8" t="str">
         <f t="shared" si="101"/>
         <v>.</v>
       </c>
-      <c r="S43" s="9" t="str">
+      <c r="S43" s="8" t="str">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="T43" s="9" t="str">
+      <c r="T43" s="8" t="str">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="U43" s="9" t="str">
+      <c r="U43" s="8" t="str">
         <f t="shared" si="102"/>
         <v>1</v>
       </c>
-      <c r="V43" s="9" t="str">
+      <c r="V43" s="8" t="str">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="W43" s="9" t="str">
+      <c r="W43" s="8" t="str">
         <f t="shared" si="102"/>
         <v>.</v>
       </c>
-      <c r="X43" s="9" t="str">
+      <c r="X43" s="8" t="str">
         <f t="shared" si="102"/>
         <v>1</v>
       </c>
-      <c r="Y43" s="9" t="str">
+      <c r="Y43" s="8" t="str">
         <f t="shared" si="102"/>
         <v>1</v>
       </c>
-      <c r="Z43" s="9" t="str">
+      <c r="Z43" s="8" t="str">
         <f t="shared" si="102"/>
         <v>1</v>
       </c>
-      <c r="AA43" s="9" t="str">
+      <c r="AA43" s="8" t="str">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="AC43" s="11"/>
-      <c r="AD43" s="16"/>
-      <c r="AE43" s="12" t="str">
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="10" t="str">
         <f>"X"&amp;MID(D42,2,2)</f>
         <v>X8</v>
       </c>
-      <c r="AF43" s="12">
-        <f>VLOOKUP(AE43,$A$4:$D$15,4,0)</f>
+      <c r="AF43" s="10">
+        <f>D11</f>
         <v>-18130</v>
       </c>
     </row>
-    <row r="44" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I44" s="6">
         <f t="shared" ref="I44" si="103">IF(I43=".",I43,MOD(I43+I42+I41,2))</f>
         <v>1</v>
@@ -3840,14 +3784,14 @@
         <f>IF(AA43=".",AA43,MOD(AA43+AA42+AA41,2))</f>
         <v>0</v>
       </c>
-      <c r="AB44" s="11" t="s">
+      <c r="AB44" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AC44" s="11">
+      <c r="AC44" s="9">
         <f>IF(I44=0,_xlfn.DECIMAL(J44&amp;K44&amp;L44&amp;N44&amp;O44&amp;P44&amp;Q44&amp;S44&amp;T44&amp;U44&amp;V44&amp;X44&amp;Y44&amp;Z44&amp;AA44, 2),-_xlfn.DECIMAL(J45&amp;K45&amp;L45&amp;N45&amp;O45&amp;P45&amp;Q45&amp;S45&amp;T45&amp;U45&amp;V45&amp;X45&amp;Y45&amp;Z45&amp;AA45, 2))</f>
         <v>-23060</v>
       </c>
-      <c r="AD44" s="11" t="s">
+      <c r="AD44" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AF44">
@@ -3859,7 +3803,7 @@
         <v>Результат верный, перенос из старшего разряда не учитывается.</v>
       </c>
     </row>
-    <row r="45" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I45" s="6">
         <f>IF(I44=0,"",1)</f>
         <v>1</v>
@@ -3937,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I46" t="s">
         <v>45</v>
       </c>
@@ -3981,178 +3925,178 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="C49" s="13" t="s">
+    <row r="49" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C49" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="I49" s="9">
+      <c r="D49" s="11"/>
+      <c r="I49" s="8">
         <f t="shared" ref="I49:Y49" si="138">IF(J50=".",J49,ROUNDDOWN((J51+J50+J49)/2,0))</f>
         <v>0</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="8">
         <f t="shared" si="138"/>
         <v>1</v>
       </c>
-      <c r="K49" s="9">
+      <c r="K49" s="8">
         <f t="shared" si="138"/>
         <v>0</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L49" s="8">
         <f t="shared" si="138"/>
         <v>0</v>
       </c>
-      <c r="M49" s="9">
+      <c r="M49" s="8">
         <f t="shared" si="138"/>
         <v>0</v>
       </c>
-      <c r="N49" s="9">
+      <c r="N49" s="8">
         <f t="shared" si="138"/>
         <v>0</v>
       </c>
-      <c r="O49" s="9">
+      <c r="O49" s="8">
         <f t="shared" si="138"/>
         <v>0</v>
       </c>
-      <c r="P49" s="9">
+      <c r="P49" s="8">
         <f t="shared" si="138"/>
         <v>1</v>
       </c>
-      <c r="Q49" s="9">
+      <c r="Q49" s="8">
         <f t="shared" si="138"/>
         <v>1</v>
       </c>
-      <c r="R49" s="9">
+      <c r="R49" s="8">
         <f t="shared" si="138"/>
         <v>1</v>
       </c>
-      <c r="S49" s="9">
+      <c r="S49" s="8">
         <f t="shared" si="138"/>
         <v>1</v>
       </c>
-      <c r="T49" s="9">
+      <c r="T49" s="8">
         <f t="shared" si="138"/>
         <v>1</v>
       </c>
-      <c r="U49" s="9">
+      <c r="U49" s="8">
         <f t="shared" si="138"/>
         <v>0</v>
       </c>
-      <c r="V49" s="9">
+      <c r="V49" s="8">
         <f t="shared" si="138"/>
         <v>1</v>
       </c>
-      <c r="W49" s="9">
+      <c r="W49" s="8">
         <f t="shared" si="138"/>
         <v>1</v>
       </c>
-      <c r="X49" s="9">
+      <c r="X49" s="8">
         <f t="shared" si="138"/>
         <v>1</v>
       </c>
-      <c r="Y49" s="9">
+      <c r="Y49" s="8">
         <f t="shared" si="138"/>
         <v>0</v>
       </c>
-      <c r="Z49" s="9">
+      <c r="Z49" s="8">
         <f>IF(AA50=".",AA49,ROUNDDOWN((AA51+AA50+AA49)/2,0))</f>
         <v>0</v>
       </c>
-      <c r="AA49" s="9"/>
-      <c r="AC49" s="11"/>
-    </row>
-    <row r="50" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="C50" s="8" t="s">
+      <c r="AA49" s="8"/>
+      <c r="AC49" s="9"/>
+    </row>
+    <row r="50" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C50" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D50" t="s">
         <v>35</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H50" s="10" t="str">
+      <c r="H50" s="6" t="str">
         <f>C50</f>
         <v>B8</v>
       </c>
-      <c r="I50" s="10" t="str">
+      <c r="I50" s="6" t="str">
         <f t="shared" ref="I50:R51" si="139">VLOOKUP($H50,$F$4:$AA$15,3+I$95,0)</f>
         <v>1</v>
       </c>
-      <c r="J50" s="10" t="str">
+      <c r="J50" s="6" t="str">
         <f t="shared" si="139"/>
         <v>0</v>
       </c>
-      <c r="K50" s="10" t="str">
+      <c r="K50" s="6" t="str">
         <f t="shared" si="139"/>
         <v>1</v>
       </c>
-      <c r="L50" s="10" t="str">
+      <c r="L50" s="6" t="str">
         <f t="shared" si="139"/>
         <v>1</v>
       </c>
-      <c r="M50" s="10" t="str">
+      <c r="M50" s="6" t="str">
         <f t="shared" si="139"/>
         <v>.</v>
       </c>
-      <c r="N50" s="10" t="str">
+      <c r="N50" s="6" t="str">
         <f t="shared" si="139"/>
         <v>1</v>
       </c>
-      <c r="O50" s="10" t="str">
+      <c r="O50" s="6" t="str">
         <f t="shared" si="139"/>
         <v>0</v>
       </c>
-      <c r="P50" s="10" t="str">
+      <c r="P50" s="6" t="str">
         <f t="shared" si="139"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="10" t="str">
+      <c r="Q50" s="6" t="str">
         <f t="shared" si="139"/>
         <v>1</v>
       </c>
-      <c r="R50" s="10" t="str">
+      <c r="R50" s="6" t="str">
         <f t="shared" si="139"/>
         <v>.</v>
       </c>
-      <c r="S50" s="10" t="str">
+      <c r="S50" s="6" t="str">
         <f t="shared" ref="S50:AA51" si="140">VLOOKUP($H50,$F$4:$AA$15,3+S$95,0)</f>
         <v>0</v>
       </c>
-      <c r="T50" s="10" t="str">
+      <c r="T50" s="6" t="str">
         <f t="shared" si="140"/>
         <v>0</v>
       </c>
-      <c r="U50" s="10" t="str">
+      <c r="U50" s="6" t="str">
         <f t="shared" si="140"/>
         <v>1</v>
       </c>
-      <c r="V50" s="10" t="str">
+      <c r="V50" s="6" t="str">
         <f t="shared" si="140"/>
         <v>0</v>
       </c>
-      <c r="W50" s="10" t="str">
+      <c r="W50" s="6" t="str">
         <f t="shared" si="140"/>
         <v>.</v>
       </c>
-      <c r="X50" s="10" t="str">
+      <c r="X50" s="6" t="str">
         <f t="shared" si="140"/>
         <v>1</v>
       </c>
-      <c r="Y50" s="10" t="str">
+      <c r="Y50" s="6" t="str">
         <f t="shared" si="140"/>
         <v>1</v>
       </c>
-      <c r="Z50" s="10" t="str">
+      <c r="Z50" s="6" t="str">
         <f t="shared" si="140"/>
         <v>1</v>
       </c>
-      <c r="AA50" s="10" t="str">
+      <c r="AA50" s="6" t="str">
         <f t="shared" si="140"/>
         <v>0</v>
       </c>
-      <c r="AC50" s="11"/>
-      <c r="AD50" s="16" t="s">
+      <c r="AC50" s="9"/>
+      <c r="AD50" s="12" t="s">
         <v>41</v>
       </c>
       <c r="AE50" t="str">
@@ -4160,104 +4104,104 @@
         <v>X8</v>
       </c>
       <c r="AF50">
-        <f>VLOOKUP(AE50,$A$4:$D$15,4,0)</f>
+        <f>D11</f>
         <v>-18130</v>
       </c>
     </row>
-    <row r="51" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="G51" s="15"/>
-      <c r="H51" s="9" t="str">
+    <row r="51" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="G51" s="13"/>
+      <c r="H51" s="8" t="str">
         <f>D50</f>
         <v>B9</v>
       </c>
-      <c r="I51" s="9" t="str">
+      <c r="I51" s="8" t="str">
         <f t="shared" si="139"/>
         <v>1</v>
       </c>
-      <c r="J51" s="9" t="str">
+      <c r="J51" s="8" t="str">
         <f t="shared" si="139"/>
         <v>0</v>
       </c>
-      <c r="K51" s="9" t="str">
+      <c r="K51" s="8" t="str">
         <f t="shared" si="139"/>
         <v>1</v>
       </c>
-      <c r="L51" s="9" t="str">
+      <c r="L51" s="8" t="str">
         <f t="shared" si="139"/>
         <v>0</v>
       </c>
-      <c r="M51" s="9" t="str">
+      <c r="M51" s="8" t="str">
         <f t="shared" si="139"/>
         <v>.</v>
       </c>
-      <c r="N51" s="9" t="str">
+      <c r="N51" s="8" t="str">
         <f t="shared" si="139"/>
         <v>0</v>
       </c>
-      <c r="O51" s="9" t="str">
+      <c r="O51" s="8" t="str">
         <f t="shared" si="139"/>
         <v>1</v>
       </c>
-      <c r="P51" s="9" t="str">
+      <c r="P51" s="8" t="str">
         <f t="shared" si="139"/>
         <v>0</v>
       </c>
-      <c r="Q51" s="9" t="str">
+      <c r="Q51" s="8" t="str">
         <f t="shared" si="139"/>
         <v>1</v>
       </c>
-      <c r="R51" s="9" t="str">
+      <c r="R51" s="8" t="str">
         <f t="shared" si="139"/>
         <v>.</v>
       </c>
-      <c r="S51" s="9" t="str">
+      <c r="S51" s="8" t="str">
         <f t="shared" si="140"/>
         <v>1</v>
       </c>
-      <c r="T51" s="9" t="str">
+      <c r="T51" s="8" t="str">
         <f t="shared" si="140"/>
         <v>1</v>
       </c>
-      <c r="U51" s="9" t="str">
+      <c r="U51" s="8" t="str">
         <f t="shared" si="140"/>
         <v>1</v>
       </c>
-      <c r="V51" s="9" t="str">
+      <c r="V51" s="8" t="str">
         <f t="shared" si="140"/>
         <v>0</v>
       </c>
-      <c r="W51" s="9" t="str">
+      <c r="W51" s="8" t="str">
         <f t="shared" si="140"/>
         <v>.</v>
       </c>
-      <c r="X51" s="9" t="str">
+      <c r="X51" s="8" t="str">
         <f t="shared" si="140"/>
         <v>1</v>
       </c>
-      <c r="Y51" s="9" t="str">
+      <c r="Y51" s="8" t="str">
         <f t="shared" si="140"/>
         <v>1</v>
       </c>
-      <c r="Z51" s="9" t="str">
+      <c r="Z51" s="8" t="str">
         <f t="shared" si="140"/>
         <v>0</v>
       </c>
-      <c r="AA51" s="9" t="str">
+      <c r="AA51" s="8" t="str">
         <f t="shared" si="140"/>
         <v>0</v>
       </c>
-      <c r="AC51" s="11"/>
-      <c r="AD51" s="16"/>
-      <c r="AE51" s="12" t="str">
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="12"/>
+      <c r="AE51" s="10" t="str">
         <f>"X"&amp;MID(D50,2,2)</f>
         <v>X9</v>
       </c>
-      <c r="AF51" s="12">
-        <f>VLOOKUP(AE51,$A$4:$D$15,4,0)</f>
+      <c r="AF51" s="10">
+        <f>D12</f>
         <v>-23060</v>
       </c>
     </row>
-    <row r="52" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I52" s="6">
         <f t="shared" ref="I52" si="141">IF(I51=".",I51,MOD(I51+I50+I49,2))</f>
         <v>0</v>
@@ -4334,14 +4278,14 @@
         <f>IF(AA51=".",AA51,MOD(AA51+AA50+AA49,2))</f>
         <v>0</v>
       </c>
-      <c r="AB52" s="11" t="s">
+      <c r="AB52" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AC52" s="11">
+      <c r="AC52" s="9">
         <f>IF(I52=0,_xlfn.DECIMAL(J52&amp;K52&amp;L52&amp;N52&amp;O52&amp;P52&amp;Q52&amp;S52&amp;T52&amp;U52&amp;V52&amp;X52&amp;Y52&amp;Z52&amp;AA52, 2),-_xlfn.DECIMAL(J53&amp;K53&amp;L53&amp;N53&amp;O53&amp;P53&amp;Q53&amp;S53&amp;T53&amp;U53&amp;V53&amp;X53&amp;Y53&amp;Z53&amp;AA53, 2))</f>
         <v>24346</v>
       </c>
-      <c r="AD52" s="11" t="s">
+      <c r="AD52" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AF52">
@@ -4353,7 +4297,7 @@
         <v>При сложении отрицательных чисел получен положительный результат — произошло переполнение.</v>
       </c>
     </row>
-    <row r="53" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I53" s="6" t="str">
         <f>IF(I52=0,"",1)</f>
         <v/>
@@ -4431,7 +4375,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I54" t="s">
         <v>45</v>
       </c>
@@ -4475,178 +4419,178 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="C57" s="13" t="s">
+    <row r="57" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C57" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="I57" s="9">
+      <c r="D57" s="11"/>
+      <c r="I57" s="8">
         <f t="shared" ref="I57:Y57" si="176">IF(J58=".",J57,ROUNDDOWN((J59+J58+J57)/2,0))</f>
         <v>0</v>
       </c>
-      <c r="J57" s="9">
+      <c r="J57" s="8">
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="K57" s="9">
+      <c r="K57" s="8">
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="L57" s="9">
+      <c r="L57" s="8">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="M57" s="9">
+      <c r="M57" s="8">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="N57" s="9">
+      <c r="N57" s="8">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="O57" s="9">
+      <c r="O57" s="8">
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="P57" s="9">
+      <c r="P57" s="8">
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="Q57" s="9">
+      <c r="Q57" s="8">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="R57" s="9">
+      <c r="R57" s="8">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="S57" s="9">
+      <c r="S57" s="8">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="T57" s="9">
+      <c r="T57" s="8">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="U57" s="9">
+      <c r="U57" s="8">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="V57" s="9">
+      <c r="V57" s="8">
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="W57" s="9">
+      <c r="W57" s="8">
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="X57" s="9">
+      <c r="X57" s="8">
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="Y57" s="9">
+      <c r="Y57" s="8">
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="Z57" s="9">
+      <c r="Z57" s="8">
         <f>IF(AA58=".",AA57,ROUNDDOWN((AA59+AA58+AA57)/2,0))</f>
         <v>0</v>
       </c>
-      <c r="AA57" s="9"/>
-      <c r="AC57" s="11"/>
-    </row>
-    <row r="58" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="C58" s="8" t="s">
+      <c r="AA57" s="8"/>
+      <c r="AC57" s="9"/>
+    </row>
+    <row r="58" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C58" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D58" t="s">
         <v>34</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H58" s="10" t="str">
+      <c r="H58" s="6" t="str">
         <f>C58</f>
         <v>B1</v>
       </c>
-      <c r="I58" s="10" t="str">
+      <c r="I58" s="6" t="str">
         <f t="shared" ref="I58:R59" si="177">VLOOKUP($H58,$F$4:$AA$15,3+I$95,0)</f>
         <v>0</v>
       </c>
-      <c r="J58" s="10" t="str">
+      <c r="J58" s="6" t="str">
         <f t="shared" si="177"/>
         <v>0</v>
       </c>
-      <c r="K58" s="10" t="str">
+      <c r="K58" s="6" t="str">
         <f t="shared" si="177"/>
         <v>0</v>
       </c>
-      <c r="L58" s="10" t="str">
+      <c r="L58" s="6" t="str">
         <f t="shared" si="177"/>
         <v>1</v>
       </c>
-      <c r="M58" s="10" t="str">
+      <c r="M58" s="6" t="str">
         <f t="shared" si="177"/>
         <v>.</v>
       </c>
-      <c r="N58" s="10" t="str">
+      <c r="N58" s="6" t="str">
         <f t="shared" si="177"/>
         <v>0</v>
       </c>
-      <c r="O58" s="10" t="str">
+      <c r="O58" s="6" t="str">
         <f t="shared" si="177"/>
         <v>0</v>
       </c>
-      <c r="P58" s="10" t="str">
+      <c r="P58" s="6" t="str">
         <f t="shared" si="177"/>
         <v>1</v>
       </c>
-      <c r="Q58" s="10" t="str">
+      <c r="Q58" s="6" t="str">
         <f t="shared" si="177"/>
         <v>1</v>
       </c>
-      <c r="R58" s="10" t="str">
+      <c r="R58" s="6" t="str">
         <f t="shared" si="177"/>
         <v>.</v>
       </c>
-      <c r="S58" s="10" t="str">
+      <c r="S58" s="6" t="str">
         <f t="shared" ref="S58:AA59" si="178">VLOOKUP($H58,$F$4:$AA$15,3+S$95,0)</f>
         <v>0</v>
       </c>
-      <c r="T58" s="10" t="str">
+      <c r="T58" s="6" t="str">
         <f t="shared" si="178"/>
         <v>1</v>
       </c>
-      <c r="U58" s="10" t="str">
+      <c r="U58" s="6" t="str">
         <f t="shared" si="178"/>
         <v>0</v>
       </c>
-      <c r="V58" s="10" t="str">
+      <c r="V58" s="6" t="str">
         <f t="shared" si="178"/>
         <v>0</v>
       </c>
-      <c r="W58" s="10" t="str">
+      <c r="W58" s="6" t="str">
         <f t="shared" si="178"/>
         <v>.</v>
       </c>
-      <c r="X58" s="10" t="str">
+      <c r="X58" s="6" t="str">
         <f t="shared" si="178"/>
         <v>0</v>
       </c>
-      <c r="Y58" s="10" t="str">
+      <c r="Y58" s="6" t="str">
         <f t="shared" si="178"/>
         <v>0</v>
       </c>
-      <c r="Z58" s="10" t="str">
+      <c r="Z58" s="6" t="str">
         <f t="shared" si="178"/>
         <v>1</v>
       </c>
-      <c r="AA58" s="10" t="str">
+      <c r="AA58" s="6" t="str">
         <f t="shared" si="178"/>
         <v>0</v>
       </c>
-      <c r="AC58" s="11"/>
-      <c r="AD58" s="16" t="s">
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="12" t="s">
         <v>41</v>
       </c>
       <c r="AE58" t="str">
@@ -4654,104 +4598,104 @@
         <v>X1</v>
       </c>
       <c r="AF58">
-        <f>VLOOKUP(AE58,$A$4:$D$15,4,0)</f>
+        <f>D4</f>
         <v>4930</v>
       </c>
     </row>
-    <row r="59" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="G59" s="15"/>
-      <c r="H59" s="9" t="str">
+    <row r="59" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="G59" s="13"/>
+      <c r="H59" s="8" t="str">
         <f>D58</f>
         <v>B8</v>
       </c>
-      <c r="I59" s="9" t="str">
+      <c r="I59" s="8" t="str">
         <f t="shared" si="177"/>
         <v>1</v>
       </c>
-      <c r="J59" s="9" t="str">
+      <c r="J59" s="8" t="str">
         <f t="shared" si="177"/>
         <v>0</v>
       </c>
-      <c r="K59" s="9" t="str">
+      <c r="K59" s="8" t="str">
         <f t="shared" si="177"/>
         <v>1</v>
       </c>
-      <c r="L59" s="9" t="str">
+      <c r="L59" s="8" t="str">
         <f t="shared" si="177"/>
         <v>1</v>
       </c>
-      <c r="M59" s="9" t="str">
+      <c r="M59" s="8" t="str">
         <f t="shared" si="177"/>
         <v>.</v>
       </c>
-      <c r="N59" s="9" t="str">
+      <c r="N59" s="8" t="str">
         <f t="shared" si="177"/>
         <v>1</v>
       </c>
-      <c r="O59" s="9" t="str">
+      <c r="O59" s="8" t="str">
         <f t="shared" si="177"/>
         <v>0</v>
       </c>
-      <c r="P59" s="9" t="str">
+      <c r="P59" s="8" t="str">
         <f t="shared" si="177"/>
         <v>0</v>
       </c>
-      <c r="Q59" s="9" t="str">
+      <c r="Q59" s="8" t="str">
         <f t="shared" si="177"/>
         <v>1</v>
       </c>
-      <c r="R59" s="9" t="str">
+      <c r="R59" s="8" t="str">
         <f t="shared" si="177"/>
         <v>.</v>
       </c>
-      <c r="S59" s="9" t="str">
+      <c r="S59" s="8" t="str">
         <f t="shared" si="178"/>
         <v>0</v>
       </c>
-      <c r="T59" s="9" t="str">
+      <c r="T59" s="8" t="str">
         <f t="shared" si="178"/>
         <v>0</v>
       </c>
-      <c r="U59" s="9" t="str">
+      <c r="U59" s="8" t="str">
         <f t="shared" si="178"/>
         <v>1</v>
       </c>
-      <c r="V59" s="9" t="str">
+      <c r="V59" s="8" t="str">
         <f t="shared" si="178"/>
         <v>0</v>
       </c>
-      <c r="W59" s="9" t="str">
+      <c r="W59" s="8" t="str">
         <f t="shared" si="178"/>
         <v>.</v>
       </c>
-      <c r="X59" s="9" t="str">
+      <c r="X59" s="8" t="str">
         <f t="shared" si="178"/>
         <v>1</v>
       </c>
-      <c r="Y59" s="9" t="str">
+      <c r="Y59" s="8" t="str">
         <f t="shared" si="178"/>
         <v>1</v>
       </c>
-      <c r="Z59" s="9" t="str">
+      <c r="Z59" s="8" t="str">
         <f t="shared" si="178"/>
         <v>1</v>
       </c>
-      <c r="AA59" s="9" t="str">
+      <c r="AA59" s="8" t="str">
         <f t="shared" si="178"/>
         <v>0</v>
       </c>
-      <c r="AC59" s="11"/>
-      <c r="AD59" s="16"/>
-      <c r="AE59" s="12" t="str">
+      <c r="AC59" s="9"/>
+      <c r="AD59" s="12"/>
+      <c r="AE59" s="10" t="str">
         <f>"X"&amp;MID(D58,2,2)</f>
         <v>X8</v>
       </c>
-      <c r="AF59" s="12">
-        <f>VLOOKUP(AE59,$A$4:$D$15,4,0)</f>
+      <c r="AF59" s="10">
+        <f>D11</f>
         <v>-18130</v>
       </c>
     </row>
-    <row r="60" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I60" s="6">
         <f t="shared" ref="I60" si="179">IF(I59=".",I59,MOD(I59+I58+I57,2))</f>
         <v>1</v>
@@ -4828,14 +4772,14 @@
         <f>IF(AA59=".",AA59,MOD(AA59+AA58+AA57,2))</f>
         <v>0</v>
       </c>
-      <c r="AB60" s="11" t="s">
+      <c r="AB60" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AC60" s="11">
+      <c r="AC60" s="9">
         <f>IF(I60=0,_xlfn.DECIMAL(J60&amp;K60&amp;L60&amp;N60&amp;O60&amp;P60&amp;Q60&amp;S60&amp;T60&amp;U60&amp;V60&amp;X60&amp;Y60&amp;Z60&amp;AA60, 2),-_xlfn.DECIMAL(J61&amp;K61&amp;L61&amp;N61&amp;O61&amp;P61&amp;Q61&amp;S61&amp;T61&amp;U61&amp;V61&amp;X61&amp;Y61&amp;Z61&amp;AA61, 2))</f>
         <v>-13200</v>
       </c>
-      <c r="AD60" s="11" t="s">
+      <c r="AD60" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AF60">
@@ -4847,7 +4791,7 @@
         <v>Результат верный.</v>
       </c>
     </row>
-    <row r="61" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I61" s="6">
         <f>IF(I60=0,"",1)</f>
         <v>1</v>
@@ -4925,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I62" t="s">
         <v>45</v>
       </c>
@@ -4969,178 +4913,178 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="C65" s="13" t="s">
+    <row r="65" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C65" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D65" s="13"/>
-      <c r="I65" s="9">
+      <c r="D65" s="11"/>
+      <c r="I65" s="8">
         <f t="shared" ref="I65:Y65" si="214">IF(J66=".",J65,ROUNDDOWN((J67+J66+J65)/2,0))</f>
         <v>1</v>
       </c>
-      <c r="J65" s="9">
+      <c r="J65" s="8">
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="K65" s="9">
+      <c r="K65" s="8">
         <f t="shared" si="214"/>
         <v>1</v>
       </c>
-      <c r="L65" s="9">
+      <c r="L65" s="8">
         <f t="shared" si="214"/>
         <v>1</v>
       </c>
-      <c r="M65" s="9">
+      <c r="M65" s="8">
         <f t="shared" si="214"/>
         <v>1</v>
       </c>
-      <c r="N65" s="9">
+      <c r="N65" s="8">
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="O65" s="9">
+      <c r="O65" s="8">
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="P65" s="9">
+      <c r="P65" s="8">
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="Q65" s="9">
+      <c r="Q65" s="8">
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="R65" s="9">
+      <c r="R65" s="8">
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="S65" s="9">
+      <c r="S65" s="8">
         <f t="shared" si="214"/>
         <v>1</v>
       </c>
-      <c r="T65" s="9">
+      <c r="T65" s="8">
         <f t="shared" si="214"/>
         <v>1</v>
       </c>
-      <c r="U65" s="9">
+      <c r="U65" s="8">
         <f t="shared" si="214"/>
         <v>1</v>
       </c>
-      <c r="V65" s="9">
+      <c r="V65" s="8">
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="W65" s="9">
+      <c r="W65" s="8">
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="X65" s="9">
+      <c r="X65" s="8">
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="Y65" s="9">
+      <c r="Y65" s="8">
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="Z65" s="9">
+      <c r="Z65" s="8">
         <f>IF(AA66=".",AA65,ROUNDDOWN((AA67+AA66+AA65)/2,0))</f>
         <v>0</v>
       </c>
-      <c r="AA65" s="9"/>
-      <c r="AC65" s="11"/>
-    </row>
-    <row r="66" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="C66" s="8" t="s">
+      <c r="AA65" s="8"/>
+      <c r="AC65" s="9"/>
+    </row>
+    <row r="66" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C66" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D66" t="s">
         <v>29</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="G66" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H66" s="10" t="str">
+      <c r="H66" s="6" t="str">
         <f>C66</f>
         <v>B11</v>
       </c>
-      <c r="I66" s="10" t="str">
+      <c r="I66" s="6" t="str">
         <f t="shared" ref="I66:R67" si="215">VLOOKUP($H66,$F$4:$AA$15,3+I$95,0)</f>
         <v>1</v>
       </c>
-      <c r="J66" s="10" t="str">
+      <c r="J66" s="6" t="str">
         <f t="shared" si="215"/>
         <v>1</v>
       </c>
-      <c r="K66" s="10" t="str">
+      <c r="K66" s="6" t="str">
         <f t="shared" si="215"/>
         <v>0</v>
       </c>
-      <c r="L66" s="10" t="str">
+      <c r="L66" s="6" t="str">
         <f t="shared" si="215"/>
         <v>0</v>
       </c>
-      <c r="M66" s="10" t="str">
+      <c r="M66" s="6" t="str">
         <f t="shared" si="215"/>
         <v>.</v>
       </c>
-      <c r="N66" s="10" t="str">
+      <c r="N66" s="6" t="str">
         <f t="shared" si="215"/>
         <v>1</v>
       </c>
-      <c r="O66" s="10" t="str">
+      <c r="O66" s="6" t="str">
         <f t="shared" si="215"/>
         <v>1</v>
       </c>
-      <c r="P66" s="10" t="str">
+      <c r="P66" s="6" t="str">
         <f t="shared" si="215"/>
         <v>0</v>
       </c>
-      <c r="Q66" s="10" t="str">
+      <c r="Q66" s="6" t="str">
         <f t="shared" si="215"/>
         <v>0</v>
       </c>
-      <c r="R66" s="10" t="str">
+      <c r="R66" s="6" t="str">
         <f t="shared" si="215"/>
         <v>.</v>
       </c>
-      <c r="S66" s="10" t="str">
+      <c r="S66" s="6" t="str">
         <f t="shared" ref="S66:AA67" si="216">VLOOKUP($H66,$F$4:$AA$15,3+S$95,0)</f>
         <v>0</v>
       </c>
-      <c r="T66" s="10" t="str">
+      <c r="T66" s="6" t="str">
         <f t="shared" si="216"/>
         <v>1</v>
       </c>
-      <c r="U66" s="10" t="str">
+      <c r="U66" s="6" t="str">
         <f t="shared" si="216"/>
         <v>1</v>
       </c>
-      <c r="V66" s="10" t="str">
+      <c r="V66" s="6" t="str">
         <f t="shared" si="216"/>
         <v>1</v>
       </c>
-      <c r="W66" s="10" t="str">
+      <c r="W66" s="6" t="str">
         <f t="shared" si="216"/>
         <v>.</v>
       </c>
-      <c r="X66" s="10" t="str">
+      <c r="X66" s="6" t="str">
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="Y66" s="10" t="str">
+      <c r="Y66" s="6" t="str">
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="Z66" s="10" t="str">
+      <c r="Z66" s="6" t="str">
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="AA66" s="10" t="str">
+      <c r="AA66" s="6" t="str">
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="AC66" s="11"/>
-      <c r="AD66" s="16" t="s">
+      <c r="AC66" s="9"/>
+      <c r="AD66" s="12" t="s">
         <v>41</v>
       </c>
       <c r="AE66" t="str">
@@ -5148,104 +5092,104 @@
         <v>X11</v>
       </c>
       <c r="AF66">
-        <f>VLOOKUP(AE66,$A$4:$D$15,4,0)</f>
+        <f>D14</f>
         <v>-13200</v>
       </c>
     </row>
-    <row r="67" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="G67" s="15"/>
-      <c r="H67" s="9" t="str">
+    <row r="67" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="G67" s="13"/>
+      <c r="H67" s="8" t="str">
         <f>D66</f>
         <v>B3</v>
       </c>
-      <c r="I67" s="9" t="str">
+      <c r="I67" s="8" t="str">
         <f t="shared" si="215"/>
         <v>0</v>
       </c>
-      <c r="J67" s="9" t="str">
+      <c r="J67" s="8" t="str">
         <f t="shared" si="215"/>
         <v>1</v>
       </c>
-      <c r="K67" s="9" t="str">
+      <c r="K67" s="8" t="str">
         <f t="shared" si="215"/>
         <v>0</v>
       </c>
-      <c r="L67" s="9" t="str">
+      <c r="L67" s="8" t="str">
         <f t="shared" si="215"/>
         <v>1</v>
       </c>
-      <c r="M67" s="9" t="str">
+      <c r="M67" s="8" t="str">
         <f t="shared" si="215"/>
         <v>.</v>
       </c>
-      <c r="N67" s="9" t="str">
+      <c r="N67" s="8" t="str">
         <f t="shared" si="215"/>
         <v>1</v>
       </c>
-      <c r="O67" s="9" t="str">
+      <c r="O67" s="8" t="str">
         <f t="shared" si="215"/>
         <v>0</v>
       </c>
-      <c r="P67" s="9" t="str">
+      <c r="P67" s="8" t="str">
         <f t="shared" si="215"/>
         <v>1</v>
       </c>
-      <c r="Q67" s="9" t="str">
+      <c r="Q67" s="8" t="str">
         <f t="shared" si="215"/>
         <v>0</v>
       </c>
-      <c r="R67" s="9" t="str">
+      <c r="R67" s="8" t="str">
         <f t="shared" si="215"/>
         <v>.</v>
       </c>
-      <c r="S67" s="9" t="str">
+      <c r="S67" s="8" t="str">
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="T67" s="9" t="str">
+      <c r="T67" s="8" t="str">
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="U67" s="9" t="str">
+      <c r="U67" s="8" t="str">
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="V67" s="9" t="str">
+      <c r="V67" s="8" t="str">
         <f t="shared" si="216"/>
         <v>1</v>
       </c>
-      <c r="W67" s="9" t="str">
+      <c r="W67" s="8" t="str">
         <f t="shared" si="216"/>
         <v>.</v>
       </c>
-      <c r="X67" s="9" t="str">
+      <c r="X67" s="8" t="str">
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="Y67" s="9" t="str">
+      <c r="Y67" s="8" t="str">
         <f t="shared" si="216"/>
         <v>1</v>
       </c>
-      <c r="Z67" s="9" t="str">
+      <c r="Z67" s="8" t="str">
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="AA67" s="9" t="str">
+      <c r="AA67" s="8" t="str">
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="AC67" s="11"/>
-      <c r="AD67" s="16"/>
-      <c r="AE67" s="12" t="str">
+      <c r="AC67" s="9"/>
+      <c r="AD67" s="12"/>
+      <c r="AE67" s="10" t="str">
         <f>"X"&amp;MID(D66,2,2)</f>
         <v>X3</v>
       </c>
-      <c r="AF67" s="12">
-        <f>VLOOKUP(AE67,$A$4:$D$15,4,0)</f>
+      <c r="AF67" s="10">
+        <f>D6</f>
         <v>23060</v>
       </c>
     </row>
-    <row r="68" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I68" s="6">
         <f t="shared" ref="I68" si="217">IF(I67=".",I67,MOD(I67+I66+I65,2))</f>
         <v>0</v>
@@ -5322,14 +5266,14 @@
         <f>IF(AA67=".",AA67,MOD(AA67+AA66+AA65,2))</f>
         <v>0</v>
       </c>
-      <c r="AB68" s="11" t="s">
+      <c r="AB68" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AC68" s="11">
+      <c r="AC68" s="9">
         <f>IF(I68=0,_xlfn.DECIMAL(J68&amp;K68&amp;L68&amp;N68&amp;O68&amp;P68&amp;Q68&amp;S68&amp;T68&amp;U68&amp;V68&amp;X68&amp;Y68&amp;Z68&amp;AA68, 2),-_xlfn.DECIMAL(J69&amp;K69&amp;L69&amp;N69&amp;O69&amp;P69&amp;Q69&amp;S69&amp;T69&amp;U69&amp;V69&amp;X69&amp;Y69&amp;Z69&amp;AA69, 2))</f>
         <v>9860</v>
       </c>
-      <c r="AD68" s="11" t="s">
+      <c r="AD68" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AF68">
@@ -5341,7 +5285,7 @@
         <v>Результат верный, перенос из старшего разряда не учитывается.</v>
       </c>
     </row>
-    <row r="69" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I69" s="6" t="str">
         <f>IF(I68=0,"",1)</f>
         <v/>
@@ -5419,7 +5363,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I70" t="s">
         <v>45</v>
       </c>
@@ -5463,27 +5407,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
       <c r="I95">
         <v>1</v>
       </c>
@@ -5550,6 +5494,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="AD34:AD35"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="AD42:AD43"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="G66:G67"/>
     <mergeCell ref="AD66:AD67"/>
@@ -5559,25 +5515,13 @@
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="G58:G59"/>
     <mergeCell ref="AD58:AD59"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="AD34:AD35"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="AD42:AD43"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="AD26:AD27"/>
   </mergeCells>
   <conditionalFormatting sqref="I4:AA7">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",I4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
